--- a/BAfc_claude_code/figures/figure_2/figure_2_data.xlsx
+++ b/BAfc_claude_code/figures/figure_2/figure_2_data.xlsx
@@ -23,7 +23,7 @@
     <t>FIGURE 2: SAMPLE SIZES</t>
   </si>
   <si>
-    <t>Generated: 03-Dec-2025 16:48:15</t>
+    <t>Generated: 04-Dec-2025 14:41:14</t>
   </si>
   <si>
     <t>Number of animals (N)</t>
